--- a/daily_prices.xlsx
+++ b/daily_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SKU02</t>
+          <t>SKU0978</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$6..19</t>
+          <t>$770.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SKU033</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>$434.35</t>
         </is>
       </c>
     </row>
